--- a/游戏机制/生物生成/群系与结构的可生成生物/biome.xlsx
+++ b/游戏机制/生物生成/群系与结构的可生成生物/biome.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="183">
   <si>
     <t>群系</t>
   </si>
@@ -77,12 +77,18 @@
     <t>husk</t>
   </si>
   <si>
+    <t>parched</t>
+  </si>
+  <si>
     <t>stray</t>
   </si>
   <si>
     <t>bogged</t>
   </si>
   <si>
+    <t>zombie_horse</t>
+  </si>
+  <si>
     <t>badlands</t>
   </si>
   <si>
@@ -287,6 +293,9 @@
     <t xml:space="preserve"> 19 4</t>
   </si>
   <si>
+    <t xml:space="preserve"> 90 4</t>
+  </si>
+  <si>
     <t xml:space="preserve">  5 1</t>
   </si>
   <si>
@@ -296,6 +305,9 @@
     <t xml:space="preserve"> 25 1</t>
   </si>
   <si>
+    <t xml:space="preserve"> 50 4</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 20 4</t>
   </si>
   <si>
@@ -323,9 +335,6 @@
     <t xml:space="preserve"> 40 1</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50 4</t>
-  </si>
-  <si>
     <t>100 2-5</t>
   </si>
   <si>
@@ -528,6 +537,9 @@
   </si>
   <si>
     <t>squid</t>
+  </si>
+  <si>
+    <t>nautilus</t>
   </si>
   <si>
     <t>dolphin</t>
@@ -915,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T66"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -927,10 +939,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="20" width="10.7109375" customWidth="1"/>
+    <col min="3" max="22" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -991,1887 +1003,1914 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>515</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>517</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>140</v>
       </c>
       <c r="L4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>515</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>515</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>515</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>520</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>15</v>
       </c>
       <c r="O9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>515</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>520</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>520</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>520</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I14" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>520</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I15" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>515</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I16" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" t="s">
+        <v>91</v>
+      </c>
+      <c r="R16" t="s">
+        <v>111</v>
+      </c>
+      <c r="S16" t="s">
         <v>94</v>
       </c>
-      <c r="J16" t="s">
-        <v>88</v>
-      </c>
-      <c r="R16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>610</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" t="s">
         <v>88</v>
       </c>
-      <c r="F17" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" t="s">
-        <v>85</v>
-      </c>
-      <c r="I17" t="s">
-        <v>94</v>
-      </c>
-      <c r="J17" t="s">
-        <v>88</v>
-      </c>
-      <c r="N17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B18">
         <v>10</v>
       </c>
       <c r="I18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19">
         <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20">
         <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21">
         <v>515</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I21" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22">
         <v>515</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I22" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B23">
         <v>515</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I23" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B24">
         <v>520</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I24" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J24" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B25">
         <v>515</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I25" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B26">
         <v>516</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I26" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B27">
         <v>515</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E27" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F27" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I27" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B28">
         <v>515</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E28" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F28" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I28" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J28" t="s">
-        <v>88</v>
-      </c>
-      <c r="S28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+        <v>91</v>
+      </c>
+      <c r="T28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B29">
         <v>515</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I29" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B30">
         <v>517</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E30" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F30" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I30" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J30" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B31">
         <v>520</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I31" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J31" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N31" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B32">
         <v>515</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E32" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I32" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B33">
         <v>516</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G33" t="s">
+        <v>87</v>
+      </c>
+      <c r="H33" t="s">
         <v>92</v>
       </c>
-      <c r="G33" t="s">
-        <v>85</v>
-      </c>
-      <c r="H33" t="s">
-        <v>89</v>
-      </c>
       <c r="I33" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J33" t="s">
-        <v>88</v>
-      </c>
-      <c r="T33" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
+        <v>91</v>
+      </c>
+      <c r="U33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B34">
         <v>515</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E34" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I34" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:22">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B36">
         <v>168</v>
       </c>
       <c r="I36" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L36" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M36" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O36" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q36" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B37">
         <v>520</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E37" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I37" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J37" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B38">
         <v>515</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D38" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E38" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F38" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I38" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J38" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B39">
         <v>540</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E39" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I39" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J39" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B40">
         <v>515</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E40" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F40" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I40" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J40" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B41">
         <v>515</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E41" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F41" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G41" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I41" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B42">
         <v>515</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D42" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E42" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F42" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I42" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J42" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
+        <v>91</v>
+      </c>
+      <c r="V42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B43">
         <v>615</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D43" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E43" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F43" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I43" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J43" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N43" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B44">
         <v>515</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E44" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I44" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20">
+        <v>91</v>
+      </c>
+      <c r="V44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B45">
         <v>515</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D45" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E45" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F45" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I45" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J45" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
+        <v>91</v>
+      </c>
+      <c r="V45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B46">
         <v>10</v>
       </c>
       <c r="I46" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B47">
         <v>515</v>
       </c>
       <c r="C47" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D47" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I47" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J47" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B48">
         <v>515</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D48" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E48" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I48" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J48" t="s">
-        <v>88</v>
-      </c>
-      <c r="S48" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20">
+        <v>91</v>
+      </c>
+      <c r="T48" t="s">
+        <v>111</v>
+      </c>
+      <c r="V48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B49">
         <v>515</v>
       </c>
       <c r="C49" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E49" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F49" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I49" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J49" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B50">
         <v>515</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D50" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E50" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F50" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I50" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J50" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B51">
         <v>71</v>
       </c>
       <c r="F51" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I51" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L51" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B52">
         <v>515</v>
       </c>
       <c r="C52" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D52" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E52" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F52" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G52" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I52" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J52" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B53">
         <v>515</v>
       </c>
       <c r="C53" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E53" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F53" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I53" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J53" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B54">
         <v>515</v>
       </c>
       <c r="C54" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D54" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E54" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F54" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H54" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I54" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J54" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B55">
         <v>515</v>
       </c>
       <c r="C55" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D55" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E55" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F55" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G55" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I55" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J55" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20">
+        <v>91</v>
+      </c>
+      <c r="V55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B56">
         <v>516</v>
       </c>
       <c r="C56" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D56" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E56" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F56" t="s">
+        <v>96</v>
+      </c>
+      <c r="G56" t="s">
+        <v>87</v>
+      </c>
+      <c r="H56" t="s">
         <v>92</v>
       </c>
-      <c r="G56" t="s">
-        <v>85</v>
-      </c>
-      <c r="H56" t="s">
-        <v>89</v>
-      </c>
       <c r="I56" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J56" t="s">
-        <v>88</v>
-      </c>
-      <c r="T56" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20">
+        <v>91</v>
+      </c>
+      <c r="U56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B57">
         <v>515</v>
       </c>
       <c r="C57" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D57" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E57" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F57" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I57" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J57" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B58">
         <v>10</v>
       </c>
       <c r="I58" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:22">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B60">
         <v>520</v>
       </c>
       <c r="C60" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E60" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F60" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G60" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I60" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J60" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B62">
         <v>515</v>
       </c>
       <c r="C62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D62" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E62" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I62" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J62" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B63">
         <v>515</v>
       </c>
       <c r="C63" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D63" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E63" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F63" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G63" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I63" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B64">
         <v>515</v>
       </c>
       <c r="C64" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" t="s">
+        <v>91</v>
+      </c>
+      <c r="F64" t="s">
+        <v>87</v>
+      </c>
+      <c r="G64" t="s">
+        <v>87</v>
+      </c>
+      <c r="H64" t="s">
+        <v>87</v>
+      </c>
+      <c r="I64" t="s">
+        <v>98</v>
+      </c>
+      <c r="J64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
+      <c r="A65" t="s">
         <v>85</v>
-      </c>
-      <c r="D64" t="s">
-        <v>86</v>
-      </c>
-      <c r="E64" t="s">
-        <v>88</v>
-      </c>
-      <c r="F64" t="s">
-        <v>85</v>
-      </c>
-      <c r="G64" t="s">
-        <v>85</v>
-      </c>
-      <c r="H64" t="s">
-        <v>85</v>
-      </c>
-      <c r="I64" t="s">
-        <v>94</v>
-      </c>
-      <c r="J64" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" t="s">
-        <v>83</v>
       </c>
       <c r="B65">
         <v>515</v>
       </c>
       <c r="C65" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D65" t="s">
+        <v>90</v>
+      </c>
+      <c r="E65" t="s">
+        <v>91</v>
+      </c>
+      <c r="F65" t="s">
+        <v>87</v>
+      </c>
+      <c r="G65" t="s">
+        <v>87</v>
+      </c>
+      <c r="H65" t="s">
+        <v>87</v>
+      </c>
+      <c r="I65" t="s">
+        <v>98</v>
+      </c>
+      <c r="J65" t="s">
+        <v>91</v>
+      </c>
+      <c r="V65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="A66" t="s">
         <v>86</v>
-      </c>
-      <c r="E65" t="s">
-        <v>88</v>
-      </c>
-      <c r="F65" t="s">
-        <v>85</v>
-      </c>
-      <c r="G65" t="s">
-        <v>85</v>
-      </c>
-      <c r="H65" t="s">
-        <v>85</v>
-      </c>
-      <c r="I65" t="s">
-        <v>94</v>
-      </c>
-      <c r="J65" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" t="s">
-        <v>84</v>
       </c>
       <c r="B66">
         <v>515</v>
       </c>
       <c r="C66" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D66" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E66" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F66" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H66" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I66" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J66" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2904,177 +2943,177 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="K5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3082,38 +3121,38 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>60</v>
       </c>
       <c r="J9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F10" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3121,7 +3160,7 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3129,18 +3168,18 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3148,7 +3187,7 @@
     </row>
     <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3156,21 +3195,21 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>13</v>
       </c>
       <c r="L16" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="N16" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3178,7 +3217,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3186,7 +3225,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3194,7 +3233,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3202,98 +3241,98 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21">
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F21" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G21" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22">
         <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F22" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L22" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B23">
         <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F23" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O23" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B25">
         <v>5</v>
       </c>
       <c r="P25" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3301,75 +3340,75 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B27">
         <v>13</v>
       </c>
       <c r="L27" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="O27" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q27" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B28">
         <v>11</v>
       </c>
       <c r="L28" t="s">
+        <v>138</v>
+      </c>
+      <c r="M28" t="s">
         <v>135</v>
-      </c>
-      <c r="M28" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B29">
         <v>5</v>
       </c>
       <c r="P29" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B30">
         <v>91</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E30" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F30" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H30" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I30" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3377,7 +3416,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3385,57 +3424,57 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B33">
         <v>10</v>
       </c>
       <c r="R33" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B34">
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L34" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="S34" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:22">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B35">
         <v>8</v>
       </c>
       <c r="T35" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:22">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B36">
         <v>60</v>
       </c>
       <c r="J36" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:22">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3443,85 +3482,85 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B38">
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D38" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E38" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F38" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:22">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B39">
         <v>60</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D39" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E39" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F39" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L39" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O39" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q39" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:22">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B40">
         <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E40" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F40" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L40" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O40" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q40" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:22">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3529,33 +3568,33 @@
     </row>
     <row r="42" spans="1:22">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B42">
         <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D42" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E42" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F42" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="S42" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="U42" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:22">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3563,71 +3602,71 @@
     </row>
     <row r="44" spans="1:22">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B44">
         <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D44" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E44" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F44" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G44" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="S44" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="U44" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:22">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B45">
         <v>68</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D45" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E45" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F45" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G45" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="O45" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="S45" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="U45" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="V45" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:22">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3635,7 +3674,7 @@
     </row>
     <row r="47" spans="1:22">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3643,98 +3682,98 @@
     </row>
     <row r="48" spans="1:22">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B48">
         <v>11</v>
       </c>
       <c r="L48" t="s">
+        <v>138</v>
+      </c>
+      <c r="M48" t="s">
         <v>135</v>
-      </c>
-      <c r="M48" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:22">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B49">
         <v>9</v>
       </c>
       <c r="L49" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P49" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:22">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B50">
         <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D50" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E50" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F50" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L50" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O50" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q50" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:22">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B51">
         <v>60</v>
       </c>
       <c r="J51" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:22">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B52">
         <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D52" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E52" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O52" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3742,7 +3781,7 @@
     </row>
     <row r="54" spans="1:22">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3750,85 +3789,85 @@
     </row>
     <row r="55" spans="1:22">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B55">
         <v>46</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D55" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E55" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F55" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="S55" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="U55" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B56">
         <v>50</v>
       </c>
       <c r="C56" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D56" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E56" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F56" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="R56" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B57">
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D57" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E57" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F57" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L57" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O57" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q57" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:22">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -3836,7 +3875,7 @@
     </row>
     <row r="59" spans="1:22">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -3844,7 +3883,7 @@
     </row>
     <row r="60" spans="1:22">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -3852,137 +3891,137 @@
     </row>
     <row r="61" spans="1:22">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B61">
         <v>60</v>
       </c>
       <c r="J61" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:22">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B62">
         <v>45</v>
       </c>
       <c r="C62" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E62" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F62" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="V62" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B63">
         <v>45</v>
       </c>
       <c r="C63" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D63" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E63" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F63" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="V63" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:22">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B64">
         <v>45</v>
       </c>
       <c r="C64" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D64" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E64" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F64" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="V64" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:21">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B65">
         <v>52</v>
       </c>
       <c r="C65" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D65" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E65" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F65" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G65" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="S65" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="U65" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:21">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B66">
         <v>48</v>
       </c>
       <c r="C66" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D66" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E66" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F66" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G66" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O66" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -4015,34 +4054,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4050,51 +4089,51 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4102,29 +4141,29 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -4132,62 +4171,62 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4195,7 +4234,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4203,7 +4242,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4211,172 +4250,172 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21">
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22">
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B23">
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B24">
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B25">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B26">
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B27">
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B28">
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B29">
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B30">
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B31">
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B32">
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B33">
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B34">
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B35">
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4384,106 +4423,106 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B37">
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B38">
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B39">
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B40">
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B41">
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B42">
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B43">
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B44">
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B45">
         <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -4491,51 +4530,51 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B47">
         <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B48">
         <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B49">
         <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B50">
         <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4543,73 +4582,73 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B52">
         <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B53">
         <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B54">
         <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B55">
         <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B56">
         <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B57">
         <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4617,7 +4656,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4625,18 +4664,18 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B60">
         <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -4644,57 +4683,57 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B62">
         <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B63">
         <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B64">
         <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B65">
         <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B66">
         <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4727,21 +4766,21 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4749,7 +4788,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4757,7 +4796,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4765,7 +4804,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4773,7 +4812,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4781,7 +4820,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4789,21 +4828,21 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4811,7 +4850,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4819,21 +4858,21 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -4841,46 +4880,46 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E14" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F14" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -4888,7 +4927,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4896,7 +4935,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4904,7 +4943,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4912,7 +4951,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4920,7 +4959,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4928,7 +4967,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4936,7 +4975,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4944,18 +4983,18 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B24">
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4963,18 +5002,18 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B26">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4982,7 +5021,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4990,7 +5029,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4998,7 +5037,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -5006,46 +5045,46 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B31">
         <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E31" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F31" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B32">
         <v>25</v>
       </c>
       <c r="F32" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B33">
         <v>25</v>
       </c>
       <c r="F33" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -5053,7 +5092,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -5061,7 +5100,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -5069,18 +5108,18 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B37">
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5088,7 +5127,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5096,7 +5135,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5104,7 +5143,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5112,7 +5151,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5120,18 +5159,18 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B43">
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5139,7 +5178,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5147,7 +5186,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5155,7 +5194,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5163,7 +5202,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -5171,7 +5210,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -5179,7 +5218,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -5187,7 +5226,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -5195,7 +5234,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -5203,7 +5242,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -5211,7 +5250,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -5219,7 +5258,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -5227,7 +5266,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -5235,7 +5274,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -5243,7 +5282,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -5251,7 +5290,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -5259,21 +5298,21 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B60">
         <v>40</v>
       </c>
       <c r="E60" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F60" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -5281,7 +5320,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -5289,7 +5328,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -5297,7 +5336,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -5305,7 +5344,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -5313,7 +5352,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -5326,7 +5365,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -5338,10 +5377,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="4" width="10.7109375" customWidth="1"/>
+    <col min="3" max="5" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5349,559 +5388,589 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>172</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11">
+      <c r="C13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>172</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C24" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="D24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B31">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>171</v>
-      </c>
       <c r="D37" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="E37" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B60">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C60" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D60" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="E60" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -5909,7 +5978,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -5917,7 +5986,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -5953,34 +6022,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -5988,51 +6057,51 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6040,29 +6109,29 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -6070,62 +6139,62 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -6133,7 +6202,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -6141,7 +6210,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -6149,172 +6218,172 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21">
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22">
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B23">
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B24">
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B25">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B26">
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B27">
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B28">
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B29">
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B30">
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B31">
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B32">
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B33">
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B34">
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B35">
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -6322,106 +6391,106 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B37">
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B38">
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B39">
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B40">
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B41">
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B42">
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B43">
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B44">
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B45">
         <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6429,51 +6498,51 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B47">
         <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B48">
         <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B49">
         <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B50">
         <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6481,73 +6550,73 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B52">
         <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B53">
         <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B54">
         <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B55">
         <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B56">
         <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B57">
         <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -6555,7 +6624,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -6563,18 +6632,18 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B60">
         <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -6582,57 +6651,57 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B62">
         <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B63">
         <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B64">
         <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B65">
         <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B66">
         <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -6665,12 +6734,12 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -6678,7 +6747,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -6686,7 +6755,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -6694,7 +6763,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6702,7 +6771,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6710,7 +6779,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -6718,7 +6787,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6726,7 +6795,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6734,7 +6803,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -6742,7 +6811,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6750,7 +6819,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -6758,7 +6827,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -6766,7 +6835,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -6774,7 +6843,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -6782,7 +6851,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -6790,7 +6859,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -6798,7 +6867,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -6806,7 +6875,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -6814,7 +6883,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -6822,7 +6891,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -6830,7 +6899,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -6838,7 +6907,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -6846,7 +6915,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -6854,7 +6923,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -6862,7 +6931,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -6870,7 +6939,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -6878,7 +6947,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -6886,7 +6955,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -6894,7 +6963,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -6902,7 +6971,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -6910,18 +6979,18 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B32">
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -6929,7 +6998,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -6937,7 +7006,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -6945,7 +7014,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -6953,7 +7022,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -6961,7 +7030,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -6969,7 +7038,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -6977,7 +7046,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -6985,7 +7054,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -6993,7 +7062,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -7001,7 +7070,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -7009,7 +7078,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -7017,7 +7086,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -7025,7 +7094,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -7033,7 +7102,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -7041,7 +7110,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -7049,7 +7118,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -7057,7 +7126,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -7065,7 +7134,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -7073,7 +7142,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -7081,7 +7150,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -7089,7 +7158,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -7097,7 +7166,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7105,7 +7174,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -7113,7 +7182,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7121,7 +7190,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7129,7 +7198,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7137,7 +7206,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7145,7 +7214,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7153,7 +7222,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7161,7 +7230,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -7169,7 +7238,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -7177,7 +7246,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -7185,7 +7254,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -7222,7 +7291,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -7230,7 +7299,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -7238,7 +7307,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -7246,7 +7315,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -7254,7 +7323,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -7262,7 +7331,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -7270,7 +7339,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -7278,7 +7347,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -7286,7 +7355,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -7294,7 +7363,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -7302,7 +7371,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -7310,7 +7379,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -7318,7 +7387,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -7326,7 +7395,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -7334,7 +7403,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -7342,7 +7411,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -7350,7 +7419,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -7358,7 +7427,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -7366,7 +7435,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -7374,7 +7443,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -7382,7 +7451,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -7390,7 +7459,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -7398,7 +7467,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -7406,7 +7475,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -7414,7 +7483,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -7422,7 +7491,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -7430,7 +7499,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -7438,7 +7507,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -7446,7 +7515,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -7454,7 +7523,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -7462,7 +7531,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -7470,7 +7539,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -7478,7 +7547,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -7486,7 +7555,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -7494,7 +7563,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -7502,7 +7571,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -7510,7 +7579,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -7518,7 +7587,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -7526,7 +7595,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -7534,7 +7603,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -7542,7 +7611,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -7550,7 +7619,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -7558,7 +7627,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -7566,7 +7635,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -7574,7 +7643,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -7582,7 +7651,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -7590,7 +7659,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -7598,7 +7667,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -7606,7 +7675,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -7614,7 +7683,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -7622,7 +7691,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -7630,7 +7699,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -7638,7 +7707,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -7646,7 +7715,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7654,7 +7723,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -7662,7 +7731,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7670,7 +7739,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7678,7 +7747,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7686,7 +7755,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7694,7 +7763,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7702,7 +7771,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7710,7 +7779,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -7718,7 +7787,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -7726,7 +7795,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -7734,7 +7803,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B66">
         <v>0</v>
